--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/2_TemperatureStability/211022_TempStabilityTest.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/2_TemperatureStability/211022_TempStabilityTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/2_TemperatureStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="6_{5A83B357-0953-4C13-B1C4-EB956D5D8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FE7560-612E-43A8-84C0-5C78105B0B3B}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="6_{5A83B357-0953-4C13-B1C4-EB956D5D8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7FD1FA-1DE9-4943-9A7E-85E5ABD29E93}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7935" yWindow="-14760" windowWidth="5400" windowHeight="2850" xr2:uid="{AC3C01DE-17D2-4DEE-8A88-187E4465A51B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{AC3C01DE-17D2-4DEE-8A88-187E4465A51B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-11-12_133657_LIDARlogs" sheetId="5" r:id="rId1"/>
@@ -288,7 +288,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Measured Distance</c:v>
+            <c:v>Measured Distance - Mean</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -314,115 +314,133 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'2021-11-12_133657_LIDARlogs'!$O$8:$Z$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
-                  <c:pt idx="0">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'2021-11-12_133657_LIDARlogs'!$O$7:$Z$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2021-11-12_133657_LIDARlogs'!$O$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2021-11-12_133657_LIDARlogs'!$O$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED1F-450F-AA95-90055FA0B995}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Measured Distance - Median</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:errBars>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'2021-11-12_133657_LIDARlogs'!$O$1:$Z$1</c:f>
@@ -516,13 +534,140 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED1F-450F-AA95-90055FA0B995}"/>
+              <c16:uniqueId val="{00000001-3186-4D66-B8E6-A0110F6184AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Measured Distance - Max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2021-11-12_133657_LIDARlogs'!$O$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2021-11-12_133657_LIDARlogs'!$O$6:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3186-4D66-B8E6-A0110F6184AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Real Distance</c:v>
           </c:tx>
@@ -1551,8 +1696,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1879,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6C637-45DA-4886-9375-6C34F3BD0019}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3772,9 +3917,6 @@
       <c r="L38" s="3">
         <v>45</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
@@ -4040,6 +4182,9 @@
       </c>
       <c r="L45" s="3">
         <v>45</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">

--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/2_TemperatureStability/211022_TempStabilityTest.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/2_TemperatureStability/211022_TempStabilityTest.xlsx
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6C637-45DA-4886-9375-6C34F3BD0019}">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
       <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
